--- a/Sorption Experiments/RaFHYArtificialWater2/RaFHYArtificialWater2 Equilibrated Data.xlsx
+++ b/Sorption Experiments/RaFHYArtificialWater2/RaFHYArtificialWater2 Equilibrated Data.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Dropbox (Personal)\work\MIT Graduate Work\Research\RadiumSorption\Sorption Experiments\RaFHYArtificialWater2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Equilibrated Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -75,8 +70,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,14 +134,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -193,7 +180,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -225,27 +212,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -277,24 +246,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -470,19 +421,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:E11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -490,29 +436,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>20.907666666666671</v>
+        <v>20.90766666666667</v>
       </c>
       <c r="C2">
         <v>0.3734109266666667</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>9.1159999999999997</v>
+        <v>9.116</v>
       </c>
       <c r="C3">
         <v>0.24667896</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -523,29 +469,29 @@
         <v>0.240124</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>9.7593333333333341</v>
+        <v>9.759333333333334</v>
       </c>
       <c r="C5">
-        <v>0.25510897333333332</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2551089733333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>22.792000000000002</v>
+        <v>22.792</v>
       </c>
       <c r="C6">
-        <v>0.38928736000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.38928736</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -553,10 +499,10 @@
         <v>14.93766666666667</v>
       </c>
       <c r="C7">
-        <v>0.31548352000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.31548352</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -564,10 +510,10 @@
         <v>15.27933333333333</v>
       </c>
       <c r="C8">
-        <v>0.31933806666666659</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3193380666666666</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -575,10 +521,10 @@
         <v>15.29166666666667</v>
       </c>
       <c r="C9">
-        <v>0.31959583333333319</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3195958333333332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -586,10 +532,10 @@
         <v>23.75566666666667</v>
       </c>
       <c r="C10">
-        <v>0.39766985999999988</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3976698599999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -597,10 +543,10 @@
         <v>14.56966666666667</v>
       </c>
       <c r="C11">
-        <v>0.31179086666666661</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3117908666666666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -608,10 +554,10 @@
         <v>14.48833333333333</v>
       </c>
       <c r="C12">
-        <v>0.31091963333333328</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3109196333333333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -619,40 +565,40 @@
         <v>14.612</v>
       </c>
       <c r="C13">
-        <v>0.31240456000000011</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3124045600000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B14">
-        <v>4.9494444444444454</v>
+        <v>4.942222222222222</v>
       </c>
       <c r="C14">
-        <v>0.18180959259259261</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1815442962962963</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B15">
-        <v>4.8744444444444452</v>
+        <v>4.836111111111111</v>
       </c>
       <c r="C15">
-        <v>0.1804519333333334</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.179629287037037</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B16">
-        <v>4.8933333333333326</v>
+        <v>4.882777777777778</v>
       </c>
       <c r="C16">
-        <v>0.180564</v>
+        <v>0.1804186388888889</v>
       </c>
     </row>
   </sheetData>
